--- a/results/I3_N5_M3_T30_C200_DepLowerLeft_s0_P1_res.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepLowerLeft_s0_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>891.7569351179006</v>
+        <v>830.7707463255554</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008999824523925781</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.17693588083531</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5.18700298823897</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5.18700298823897</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>692.4799992370655</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.1</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -747,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -780,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -791,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -813,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -874,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.63858450874014</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16.75223660871884</v>
+        <v>16.1136520999787</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>24.81299701176106</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.37739353073907</v>
+        <v>5.427798817200209</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.56774292839853</v>
+        <v>8.577917217426545</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.43225707160147</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.80519234793928</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1027,76 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>244.6650000000012</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>266.2250000000013</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>269.8400000000013</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>276.2750000000012</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>271.1900000000012</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>176.4900000000005</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>190.0950000000006</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>194</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>199.3650000000006</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>195.3400000000006</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999935</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>208.0599999999993</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>189.4349999999993</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>206.7149999999993</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>193.8399999999993</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>203.2699999999994</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>70.22999999999979</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>80.22999999999979</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>86.27499999999979</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>87.40499999999979</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>84.38999999999979</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>244.6650000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>266.2250000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>269.8400000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>276.2750000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>271.1900000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>208.0599999999993</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>189.4349999999993</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>206.7149999999993</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>193.8399999999993</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>203.2699999999994</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>44.66499996185303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>66.22499990463257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>69.83999991416931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1707,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>76.27500000000123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>71.19000000000125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1659,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8.059999942779541</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.714999914169312</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>3.269999980926514</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1761,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1772,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1783,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1794,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1805,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -1970,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -2003,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -2014,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2055,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2066,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2077,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2088,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2099,45 +2224,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
         <v>1</v>
       </c>
     </row>
